--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -221,12 +221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -238,6 +232,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -548,301 +550,305 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>2010</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="18">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16">
         <v>2011</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="6">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="17">
         <v>2012</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>7</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>8</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>9</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>10</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>11</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>12</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>13</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="8">
         <v>14</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>15</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="8">
         <v>16</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>17</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="8">
         <v>18</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="9">
         <v>19</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="C5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="D5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="E5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="F5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="G5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="H5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="I5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="J5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="K5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="L5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="M5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="N5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="O5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="P5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="R5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="S5" s="12">
-        <v>244.95</v>
-      </c>
-      <c r="T5" s="13">
-        <v>244.95</v>
-      </c>
-      <c r="U5" s="12">
+      <c r="B5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="C5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="D5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="E5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="F5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="G5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="H5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="I5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="J5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="K5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="L5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="M5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="N5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="O5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="P5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="R5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="S5" s="10">
+        <v>244.95</v>
+      </c>
+      <c r="T5" s="11">
+        <v>244.95</v>
+      </c>
+      <c r="U5" s="10">
         <v>244.95</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="C6" s="13">
-        <v>89.62</v>
-      </c>
-      <c r="D6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="E6" s="13">
-        <v>89.62</v>
-      </c>
-      <c r="F6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="G6" s="13">
-        <v>89.62</v>
-      </c>
-      <c r="H6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="I6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="J6" s="13">
-        <v>89.62</v>
-      </c>
-      <c r="K6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="L6" s="13">
-        <v>89.62</v>
-      </c>
-      <c r="M6" s="12">
-        <v>89.62</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
+      <c r="B6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="C6" s="11">
+        <v>89.62</v>
+      </c>
+      <c r="D6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="E6" s="11">
+        <v>89.62</v>
+      </c>
+      <c r="F6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="G6" s="11">
+        <v>89.62</v>
+      </c>
+      <c r="H6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="I6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="J6" s="11">
+        <v>89.62</v>
+      </c>
+      <c r="K6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="L6" s="11">
+        <v>89.62</v>
+      </c>
+      <c r="M6" s="10">
+        <v>89.62</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
-        <v>-979.8</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
+      <c r="B7" s="10">
+        <v>334.57</v>
+      </c>
+      <c r="C7" s="12">
+        <v>334.57</v>
+      </c>
+      <c r="D7" s="13">
+        <v>310.66000000000003</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
@@ -871,83 +877,83 @@
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
-        <f>SUM(B5:B8)</f>
-        <v>-645.23</v>
-      </c>
-      <c r="C9" s="17">
-        <f>B9+SUM(C5:C8)</f>
-        <v>-310.66000000000003</v>
-      </c>
-      <c r="D9" s="16">
-        <f>C9+SUM(D5:D8)</f>
+      <c r="B9" s="14">
+        <f>SUM(B5:B6)-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <f>SUM(C5:C6)-C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <f>SUM(D5:D6)-D7</f>
         <v>23.909999999999968</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f>SUM(E5:E8)</f>
         <v>334.57</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <f t="shared" ref="F9:U9" si="0">SUM(F5:F8)</f>
         <v>334.57</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <f t="shared" si="0"/>
         <v>334.57</v>
       </c>
-      <c r="N9" s="17">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="O9" s="16">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="Q9" s="16">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="R9" s="17">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="S9" s="16">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="T9" s="17">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="U9" s="16">
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="R9" s="15">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="0"/>
+        <v>244.95</v>
+      </c>
+      <c r="U9" s="14">
         <f t="shared" si="0"/>
         <v>244.95</v>
       </c>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Cuota #</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,6 +241,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -832,23 +839,25 @@
       <c r="D7" s="13">
         <v>310.66000000000003</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -81,14 +81,14 @@
     <t>Cuota #</t>
   </si>
   <si>
-    <t>A</t>
+    <t>AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +234,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,18 +249,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -333,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -367,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,49 +549,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="B7:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="21" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="16">
+      <c r="B2" s="18">
         <v>2010</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="18">
         <v>2011</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="17">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19">
         <v>2012</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -647,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -712,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -777,7 +786,7 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -826,7 +835,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -839,27 +848,27 @@
       <c r="D7" s="13">
         <v>310.66000000000003</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
@@ -882,7 +891,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -967,7 +976,7 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -976,7 +985,7 @@
         <v>4898.9999999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -997,12 +1006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1010,12 +1019,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,6 +214,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -233,7 +249,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,9 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="B7:D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -566,32 +580,32 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>2010</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="18">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17">
         <v>2011</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18">
         <v>2012</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -848,48 +862,101 @@
       <c r="D7" s="13">
         <v>310.66000000000003</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="4"/>
+      <c r="E8" s="20">
+        <f>SUM(E5:E6)/2</f>
+        <v>167.285</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" ref="F8:U8" si="0">SUM(F5:F6)/2</f>
+        <v>167.285</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="0"/>
+        <v>167.285</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="0"/>
+        <v>122.47499999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -907,72 +974,72 @@
         <f>SUM(D5:D6)-D7</f>
         <v>23.909999999999968</v>
       </c>
-      <c r="E9" s="15">
-        <f>SUM(E5:E8)</f>
+      <c r="E9" s="14">
+        <f>SUM(E5:E6)</f>
         <v>334.57</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" ref="F9:U9" si="0">SUM(F5:F8)</f>
+        <f t="shared" ref="F9:U9" si="1">SUM(F5:F6)</f>
         <v>334.57</v>
       </c>
-      <c r="G9" s="15">
-        <f t="shared" si="0"/>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" si="0"/>
+      <c r="J9" s="14">
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="L9" s="15">
-        <f t="shared" si="0"/>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="N9" s="15">
-        <f t="shared" si="0"/>
+      <c r="N9" s="14">
+        <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
       <c r="O9" s="14">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>244.95</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="R9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>244.95</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
       <c r="S9" s="14">
-        <f t="shared" si="0"/>
-        <v>244.95</v>
-      </c>
-      <c r="T9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>244.95</v>
+      </c>
+      <c r="T9" s="14">
+        <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
       <c r="U9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
     </row>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>AM</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -255,6 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,32 +579,32 @@
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>2010</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="18">
         <v>2011</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19">
         <v>2012</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -866,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
@@ -889,71 +888,71 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <f>SUM(E5:E6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <f t="shared" ref="F8:U8" si="0">SUM(F5:F6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="17">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -81,14 +81,41 @@
     <t>Cuota #</t>
   </si>
   <si>
-    <t>AM</t>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Pasaje Pablo</t>
+  </si>
+  <si>
+    <t>Cuota</t>
+  </si>
+  <si>
+    <t>Primera</t>
+  </si>
+  <si>
+    <t>Tot p/cap</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Micky</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Total Pasaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +136,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SWMacro"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,12 +282,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,7 +302,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,6 +311,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,508 +634,979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="18">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15">
         <v>2010</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="18">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="15">
         <v>2011</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="16">
         <v>2012</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>8</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>9</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>11</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>12</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>13</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>14</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>15</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <v>16</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <v>17</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>18</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="7">
         <v>19</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="C5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="D5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="E5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="F5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="G5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="H5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="I5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="J5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="K5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="L5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="M5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="N5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="O5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="P5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="R5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="S5" s="10">
-        <v>244.95</v>
-      </c>
-      <c r="T5" s="11">
-        <v>244.95</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="B5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="C5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="D5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="E5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="F5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="G5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="H5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="I5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="J5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="K5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="L5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="M5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="N5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="O5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="P5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="R5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="S5" s="8">
+        <v>244.95</v>
+      </c>
+      <c r="T5" s="9">
+        <v>244.95</v>
+      </c>
+      <c r="U5" s="8">
         <v>244.95</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>89.62</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>89.62</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>89.62</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>89.62</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>89.62</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>89.62</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>89.62</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>89.62</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>89.62</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>89.62</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>89.62</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>89.62</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>334.57</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>334.57</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>310.66000000000003</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="17">
+      <c r="A8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24">
         <f>SUM(E5:E6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="24">
         <f t="shared" ref="F8:U8" si="0">SUM(F5:F6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="24">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="24">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B11" s="12">
         <f>SUM(B5:B6)-B7</f>
         <v>0</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C11" s="12">
         <f>SUM(C5:C6)-C7</f>
         <v>0</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D11" s="12">
         <f>SUM(D5:D6)-D7</f>
         <v>23.909999999999968</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E11" s="12">
         <f>SUM(E5:E6)</f>
         <v>334.57</v>
       </c>
-      <c r="F9" s="14">
-        <f t="shared" ref="F9:U9" si="1">SUM(F5:F6)</f>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11:U11" si="1">SUM(F5:F6)</f>
         <v>334.57</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M11" s="12">
         <f t="shared" si="1"/>
         <v>334.57</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
-      <c r="U9" s="14">
+      <c r="U11" s="12">
         <f t="shared" si="1"/>
         <v>244.95</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="29">
         <f>SUM(B5:U5)</f>
         <v>4898.9999999999982</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="29">
         <f>SUM(B6:M6)</f>
         <v>1075.44</v>
       </c>
     </row>
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="15">
+        <v>2010</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15">
+        <v>2011</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="15">
+        <v>2012</v>
+      </c>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7">
+        <v>7</v>
+      </c>
+      <c r="L19" s="6">
+        <v>8</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9</v>
+      </c>
+      <c r="N19" s="6">
+        <v>10</v>
+      </c>
+      <c r="O19" s="7">
+        <v>11</v>
+      </c>
+      <c r="P19" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>13</v>
+      </c>
+      <c r="R19" s="6">
+        <v>14</v>
+      </c>
+      <c r="S19" s="7">
+        <v>15</v>
+      </c>
+      <c r="T19" s="6">
+        <v>16</v>
+      </c>
+      <c r="U19" s="18">
+        <v>17</v>
+      </c>
+      <c r="V19" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9">
+        <v>87.54</v>
+      </c>
+      <c r="F20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="G20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="H20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="I20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="J20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="K20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="L20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="M20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="N20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="O20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="P20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="R20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="S20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="T20" s="9">
+        <v>87.33</v>
+      </c>
+      <c r="U20" s="8">
+        <v>87.33</v>
+      </c>
+      <c r="V20" s="8">
+        <v>87.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8">
+        <v>201</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="31">
+        <f>E20/2</f>
+        <v>43.77</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" ref="F22:U22" si="2">F20/2</f>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="I22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="J22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="O22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="P22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="S22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="T22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="U22" s="31">
+        <f t="shared" si="2"/>
+        <v>43.664999999999999</v>
+      </c>
+      <c r="V22" s="31">
+        <f t="shared" ref="V22" si="3">V20/2</f>
+        <v>43.664999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="29">
+        <f>SUM(E20:V21)</f>
+        <v>1773.1499999999996</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="S2:U2"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="S17:V17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -111,11 +111,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,15 +302,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -333,6 +324,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +422,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -457,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,14 +631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -648,41 +644,41 @@
     <col min="22" max="22" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="15">
+      <c r="B2" s="29">
         <v>2010</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29">
         <v>2011</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="16">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="30">
         <v>2012</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -745,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -810,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -875,7 +871,7 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -924,7 +920,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -955,153 +951,153 @@
       <c r="T7" s="13"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="24">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21">
         <f>SUM(E5:E6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <f t="shared" ref="F8:U8" si="0">SUM(F5:F6)/2</f>
         <v>167.285</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f t="shared" si="0"/>
         <v>167.285</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="T8" s="24">
+      <c r="T8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="21">
         <f t="shared" si="0"/>
         <v>122.47499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1186,61 +1182,61 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <f>SUM(B5:U5)</f>
         <v>4898.9999999999982</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <f>SUM(B6:M6)</f>
         <v>1075.44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="15">
+      <c r="B17" s="29">
         <v>2010</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="29">
         <v>2011</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="15">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="29">
         <v>2012</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="17"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="31"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
@@ -1306,7 +1302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1361,14 +1357,14 @@
       <c r="T19" s="6">
         <v>16</v>
       </c>
-      <c r="U19" s="18">
+      <c r="U19" s="15">
         <v>17</v>
       </c>
-      <c r="V19" s="18">
+      <c r="V19" s="15">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1458,143 +1454,143 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="31">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="28">
         <f>E20/2</f>
         <v>43.77</v>
       </c>
-      <c r="F22" s="31">
-        <f t="shared" ref="F22:U22" si="2">F20/2</f>
+      <c r="F22" s="28">
+        <f>(F20+F21)/2</f>
+        <v>144.16499999999999</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" ref="F22:U22" si="2">G20/2</f>
         <v>43.664999999999999</v>
       </c>
-      <c r="G22" s="31">
+      <c r="H22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="H22" s="31">
+      <c r="I22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="I22" s="31">
+      <c r="J22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="J22" s="31">
+      <c r="K22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="K22" s="31">
+      <c r="L22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="L22" s="31">
+      <c r="M22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="M22" s="31">
+      <c r="N22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="N22" s="31">
+      <c r="O22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="O22" s="31">
+      <c r="P22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="P22" s="31">
+      <c r="Q22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="R22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="R22" s="31">
+      <c r="S22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="S22" s="31">
+      <c r="T22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="T22" s="31">
+      <c r="U22" s="28">
         <f t="shared" si="2"/>
         <v>43.664999999999999</v>
       </c>
-      <c r="U22" s="31">
-        <f t="shared" si="2"/>
-        <v>43.664999999999999</v>
-      </c>
-      <c r="V22" s="31">
+      <c r="V22" s="28">
         <f t="shared" ref="V22" si="3">V20/2</f>
         <v>43.664999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1">
+      <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="26">
         <f>SUM(E20:V21)</f>
         <v>1773.1499999999996</v>
       </c>
@@ -1614,12 +1610,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1627,12 +1623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -111,11 +111,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,6 +423,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -456,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,12 +634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -644,12 +647,12 @@
     <col min="22" max="22" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="29">
         <v>2010</v>
@@ -678,7 +681,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="31"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -741,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -806,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -920,7 +923,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -951,7 +954,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="14"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>122.47499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>244.95</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1195,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1201,12 +1204,12 @@
         <v>1075.44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="29">
         <v>2010</v>
@@ -1236,7 +1239,7 @@
       <c r="U17" s="30"/>
       <c r="V17" s="31"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
@@ -1302,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>87.33</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1457,7 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>144.16499999999999</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" ref="F22:U22" si="2">G20/2</f>
+        <f t="shared" ref="G22:U22" si="2">G20/2</f>
         <v>43.664999999999999</v>
       </c>
       <c r="H22" s="28">
@@ -1534,15 +1537,19 @@
         <v>43.664999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
+      <c r="E23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -1560,14 +1567,16 @@
       <c r="U23" s="24"/>
       <c r="V23" s="24"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="27"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -1586,7 +1595,13 @@
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F25" s="32">
+        <f>F22+F8</f>
+        <v>311.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1610,12 +1625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1623,12 +1638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -324,6 +324,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,7 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -654,32 +656,32 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="29">
+      <c r="B2" s="30">
         <v>2010</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="29">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="30">
         <v>2011</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="31">
         <v>2012</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1211,33 +1213,33 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="29">
+      <c r="B17" s="30">
         <v>2010</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="29">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30">
         <v>2011</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="29">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="30">
         <v>2012</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1577,7 +1579,9 @@
       <c r="E24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -1596,7 +1600,7 @@
       <c r="V24" s="22"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F25" s="32">
+      <c r="F25" s="29">
         <f>F22+F8</f>
         <v>311.45</v>
       </c>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,9 @@
       <c r="F9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -1552,7 +1554,9 @@
       <c r="F23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Cuota PC</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,9 @@
       <c r="G9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1557,7 +1559,9 @@
       <c r="G23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
